--- a/WGTestCases.xlsx
+++ b/WGTestCases.xlsx
@@ -12,6 +12,9 @@
     <sheet name="screen shots" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Testing!$A$1:$J$17</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -367,7 +370,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,6 +382,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -431,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -452,6 +462,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -751,13 +764,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>157</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -775,7 +788,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="26670000"/>
+          <a:off x="57150" y="26670000"/>
           <a:ext cx="6296025" cy="3419475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -932,13 +945,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>204</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>223</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -954,7 +967,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="38862000"/>
+          <a:off x="0" y="38900100"/>
           <a:ext cx="6000750" cy="3646170"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1357,7 +1370,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,7 +1445,8 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1798,7 +1812,7 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1906,6 +1920,7 @@
       <c r="J17" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1915,9 +1930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A226"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="O123" sqref="O123"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
